--- a/Logs/test_new/training_timestep_output.xlsx
+++ b/Logs/test_new/training_timestep_output.xlsx
@@ -402,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.155029296875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>-0.138671875</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -424,51 +424,51 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>-0.2193603515625</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C4">
-        <v>0.25311279296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>0.3636474609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>0.25677490234375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>-0.196044921875</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.6162109375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>-0.2080078125</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>-0.21923828125</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>-0.196044921875</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -509,21 +509,21 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C12">
-        <v>0.404052734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>-0.11181640625</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -531,32 +531,32 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>-0.11181640625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.341796875</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C15">
-        <v>0.340576171875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>-0.1767578125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>-0.1767578125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>-0.1767578125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -586,32 +586,32 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>-0.1767578125</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C19">
-        <v>0.353515625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>-0.07904052734375</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.5810546875</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -619,87 +619,87 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C22">
-        <v>0.43255615234375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>-0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.023193359375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>-0.2015380859375</v>
+        <v>-0.80615234375</v>
       </c>
       <c r="C24">
-        <v>0.3265380859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>-1</v>
       </c>
       <c r="C25">
-        <v>0.3875732421875</v>
+        <v>1.333251953125</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>-1</v>
       </c>
       <c r="C26">
-        <v>0.4080810546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C27">
-        <v>0.4364013671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C28">
-        <v>0.43212890625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>-0.085693359375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -707,21 +707,21 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>-0.06060791015625</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.247802734375</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>-0.085693359375</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>-0.135498046875</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -740,43 +740,43 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C33">
-        <v>0.385498046875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C34">
-        <v>0.279541015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C35">
-        <v>0.3193359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>-0.1580810546875</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>-0.2236328125</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -795,32 +795,32 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>-0.11181640625</v>
+        <v>-0.80908203125</v>
       </c>
       <c r="C38">
-        <v>0.4935302734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>-0.1318359375</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1.276123046875</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>-0.1318359375</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <v>-0.1318359375</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>-0.1318359375</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -850,21 +850,21 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>-0.2357177734375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C43">
-        <v>0.31903076171875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>-0.0980224609375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>-0.21923828125</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>-0.25</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>-0.0693359375</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>-0.21923828125</v>
+        <v>-1</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -916,21 +916,21 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>-0.21923828125</v>
+        <v>-1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1.7841796875</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>-0.0693359375</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -938,32 +938,32 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>-0.0693359375</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1.02685546875</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>-0.25</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C52">
-        <v>0.3480224609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>-0.085693359375</v>
+        <v>-1</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -971,32 +971,32 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>-0.085693359375</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>-0.25</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C55">
-        <v>0.26751708984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>-0.135498046875</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>-0.085693359375</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>-0.085693359375</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>-0.1212158203125</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1037,43 +1037,43 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>-0.085693359375</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C60">
-        <v>0.30419921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>-1</v>
       </c>
       <c r="C61">
-        <v>0.324920654296875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>-0.07904052734375</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1.2236328125</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>-0.055908203125</v>
+        <v>-1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1081,21 +1081,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>-0.055908203125</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1.316162109375</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>-0.07904052734375</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1103,21 +1103,21 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>-1</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C66">
-        <v>0.31170654296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>-0.225341796875</v>
+        <v>-1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1125,76 +1125,76 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>-0.1976318359375</v>
+        <v>-1</v>
       </c>
       <c r="C68">
-        <v>0.3125</v>
+        <v>1.316162109375</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B69">
-        <v>-1</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C69">
-        <v>0.459320068359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B70">
         <v>-1</v>
       </c>
       <c r="C70">
-        <v>0.292724609375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>-1</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C71">
-        <v>0.251312255859375</v>
+        <v>1.0052490234375</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>-1</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C72">
-        <v>0.3480224609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B73">
-        <v>-1</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C73">
-        <v>0.2769775390625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>-0.167724609375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1202,21 +1202,21 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B75">
-        <v>-0.11181640625</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1.39404296875</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>-0.11181640625</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>-0.167724609375</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>-0.167724609375</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>-0.167724609375</v>
+        <v>-0.5</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>-0.055908203125</v>
+        <v>-0.25</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1268,32 +1268,32 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>-0.1767578125</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1.447265625</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>-0.07904052734375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C82">
-        <v>0.31170654296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B83">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B84">
-        <v>-0.07904052734375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B85">
-        <v>-0.1767578125</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1323,21 +1323,21 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>-0.07904052734375</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C86">
-        <v>0.32904052734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>-0.11181640625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B88">
-        <v>-0.2236328125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1356,21 +1356,21 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B89">
-        <v>-0.25</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1.099853515625</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B90">
-        <v>-0.25</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B91">
-        <v>-0.2236328125</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B92">
-        <v>-0.1580810546875</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1400,21 +1400,21 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B93">
-        <v>-0.07904052734375</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C93">
-        <v>0.34893798828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>-0.135498046875</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1422,54 +1422,54 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>-0.1817626953125</v>
+        <v>-0.80908203125</v>
       </c>
       <c r="C95">
-        <v>0.3172607421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1.3388671875</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B97">
-        <v>-0.155029296875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C97">
-        <v>0.334716796875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B98">
-        <v>-0.242431640625</v>
+        <v>-0.9697265625</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1.242431640625</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B99">
-        <v>-0.242431640625</v>
+        <v>-0.9697265625</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1477,54 +1477,54 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B100">
-        <v>-1</v>
+        <v>-0.9697265625</v>
       </c>
       <c r="C100">
-        <v>0.27734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B101">
-        <v>-1</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C101">
-        <v>0.2698974609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B102">
-        <v>-0.0625</v>
+        <v>-0.25</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1.71044921875</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B103">
         <v>-0.25</v>
       </c>
       <c r="C103">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B104">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B105">
-        <v>-0.07904052734375</v>
+        <v>-0.55908203125</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1543,32 +1543,32 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B106">
-        <v>-0.2015380859375</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C106">
-        <v>0.357666015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B107">
-        <v>-1</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C107">
-        <v>0.26763916015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B108">
-        <v>-0.0980224609375</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B109">
-        <v>-0.0980224609375</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1587,21 +1587,21 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B110">
-        <v>-1</v>
+        <v>-0.55908203125</v>
       </c>
       <c r="C110">
-        <v>0.3060302734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B111">
-        <v>-0.1212158203125</v>
+        <v>-0.55908203125</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -1609,32 +1609,32 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B112">
-        <v>-0.154541015625</v>
+        <v>-0.9013671875</v>
       </c>
       <c r="C112">
-        <v>0.2757568359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B113">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B114">
-        <v>-0.167724609375</v>
+        <v>-0.6708984375</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -1642,32 +1642,32 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B115">
-        <v>-0.055908203125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C115">
-        <v>0.33544921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B116">
-        <v>-0.055908203125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1.2236328125</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B117">
-        <v>-0.055908203125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -1675,21 +1675,21 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B118">
-        <v>-1</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C118">
-        <v>0.305908203125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B119">
-        <v>-0.07904052734375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B120">
-        <v>-0.25</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B121">
-        <v>-0.25</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B122">
-        <v>-0.1767578125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -1730,21 +1730,21 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B123">
-        <v>-0.1767578125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C123">
-        <v>0.400390625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B124">
-        <v>-0.08331298828125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B125">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -1763,43 +1763,43 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B126">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B127">
-        <v>-0.08331298828125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>2.7890625</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B128">
-        <v>-1</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B129">
-        <v>-0.0693359375</v>
+        <v>-1</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B130">
-        <v>-0.138671875</v>
+        <v>-1</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -1818,21 +1818,21 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B131">
-        <v>-0.155029296875</v>
+        <v>-1</v>
       </c>
       <c r="C131">
-        <v>0.363037109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B132">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B133">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B134">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B135">
-        <v>-0.25</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B136">
-        <v>-0.25</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B137">
-        <v>-0.25</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B138">
-        <v>-0.1397705078125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B139">
-        <v>-0.1397705078125</v>
+        <v>-1</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B140">
-        <v>-0.1397705078125</v>
+        <v>-1</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B141">
-        <v>-0.1397705078125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -1939,10 +1939,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B142">
-        <v>-0.1397705078125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -1950,10 +1950,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B143">
-        <v>-0.1397705078125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B144">
-        <v>-0.25</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B145">
-        <v>-0.125</v>
+        <v>-1</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B146">
-        <v>-0.125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -1994,21 +1994,21 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B147">
-        <v>-0.125</v>
+        <v>-0.92236328125</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1.238525390625</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B148">
-        <v>-0.1397705078125</v>
+        <v>-0.80615234375</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B149">
-        <v>-0.1397705078125</v>
+        <v>-0.80615234375</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B150">
-        <v>-0.1397705078125</v>
+        <v>-0.92236328125</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B151">
-        <v>-0.1397705078125</v>
+        <v>-0.92236328125</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2049,21 +2049,21 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B152">
-        <v>-0.0625</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C152">
-        <v>0.342041015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B153">
-        <v>-0.155029296875</v>
+        <v>-0.80615234375</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B154">
-        <v>-0.0693359375</v>
+        <v>-0.92236328125</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B155">
-        <v>-0.138671875</v>
+        <v>-0.92236328125</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B156">
-        <v>-0.138671875</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2104,21 +2104,21 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B157">
-        <v>-0.2080078125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C157">
-        <v>0.3466796875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B158">
-        <v>-0.06060791015625</v>
+        <v>-0.92236328125</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B159">
-        <v>-0.085693359375</v>
+        <v>-0.92236328125</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B160">
-        <v>-0.135498046875</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B161">
-        <v>-0.135498046875</v>
+        <v>-0.80615234375</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B162">
-        <v>-0.085693359375</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2170,21 +2170,21 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B163">
-        <v>-0.085693359375</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1.63232421875</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B164">
-        <v>-0.085693359375</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B165">
-        <v>-0.085693359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2203,21 +2203,21 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B166">
-        <v>-0.085693359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1.52978515625</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B167">
-        <v>-0.085693359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B168">
-        <v>-0.085693359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B169">
-        <v>-0.085693359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B170">
-        <v>-0.085693359375</v>
+        <v>-0.80615234375</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B171">
-        <v>-0.085693359375</v>
+        <v>-0.5</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B172">
-        <v>-0.135498046875</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -2280,32 +2280,32 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B173">
         <v>-1</v>
       </c>
       <c r="C173">
-        <v>0.392578125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B174">
-        <v>-0.20751953125</v>
+        <v>-0.830078125</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B175">
-        <v>-0.19140625</v>
+        <v>-0.765625</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B176">
-        <v>-0.19140625</v>
+        <v>-0.765625</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B177">
-        <v>-0.19140625</v>
+        <v>-0.765625</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B178">
-        <v>-0.046417236328125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B179">
-        <v>-0.046417236328125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B180">
-        <v>-0.19140625</v>
+        <v>-0.765625</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B181">
-        <v>-0.19140625</v>
+        <v>-0.765625</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B182">
-        <v>-0.046417236328125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -2390,32 +2390,32 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B183">
         <v>-1</v>
       </c>
       <c r="C183">
-        <v>0.253936767578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B184">
-        <v>-0.155029296875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1.431640625</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B185">
-        <v>-0.0980224609375</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B186">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -2434,43 +2434,43 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B187">
-        <v>-1</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C187">
-        <v>0.35791015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B188">
-        <v>-1</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C188">
-        <v>0.405029296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B189">
-        <v>-1</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C189">
-        <v>0.4080810546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B190">
-        <v>-0.0693359375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B191">
-        <v>-0.138671875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B192">
-        <v>-0.155029296875</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B193">
-        <v>-0.0693359375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B194">
-        <v>-0.2080078125</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B195">
-        <v>-0.2080078125</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B196">
-        <v>-0.138671875</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B197">
-        <v>-0.138671875</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B198">
-        <v>-0.0693359375</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B199">
-        <v>-0.155029296875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B200">
-        <v>-0.138671875</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B201">
-        <v>-0.0693359375</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B202">
-        <v>-0.0693359375</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B203">
-        <v>-0.2080078125</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -2621,21 +2621,21 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B204">
-        <v>-0.138671875</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C204">
-        <v>0.3193359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B205">
-        <v>-0.07904052734375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B206">
-        <v>-0.07904052734375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B207">
-        <v>-0.07904052734375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -2665,32 +2665,32 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B208">
-        <v>-0.25</v>
+        <v>-1.099609375</v>
       </c>
       <c r="C208">
-        <v>0.32904052734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B209">
-        <v>-0.0706787109375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1.240234375</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B210">
-        <v>-0.1500244140625</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B211">
-        <v>-0.1500244140625</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B212">
-        <v>-0.0706787109375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -2720,21 +2720,21 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B213">
-        <v>-0.0706787109375</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1.2236328125</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B214">
-        <v>-0.1500244140625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -2742,43 +2742,43 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B215">
-        <v>-0.1580810546875</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C215">
-        <v>0.3499755859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B216">
-        <v>-1</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C216">
-        <v>0.4080810546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B217">
-        <v>-1</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C217">
-        <v>0.28857421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B218">
-        <v>-0.0693359375</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B219">
-        <v>-0.0693359375</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -2797,10 +2797,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B220">
-        <v>-0.0980224609375</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B221">
-        <v>-0.0693359375</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B222">
-        <v>-0.25</v>
+        <v>-0.80615234375</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -2830,10 +2830,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B223">
-        <v>-0.21923828125</v>
+        <v>-0.5</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -2841,21 +2841,21 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B224">
-        <v>-0.21923828125</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>1.27734375</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B225">
-        <v>-0.25</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B226">
-        <v>-0.0693359375</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -2874,10 +2874,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B227">
-        <v>-0.0980224609375</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -2885,21 +2885,21 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B228">
-        <v>-0.0693359375</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1.6611328125</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B229">
-        <v>-0.0693359375</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -2907,32 +2907,32 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B230">
-        <v>-1</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C230">
-        <v>0.3480224609375</v>
+        <v>1.89453125</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B231">
-        <v>-1</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C231">
-        <v>0.3748779296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B232">
-        <v>-0.1767578125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B233">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -2951,32 +2951,32 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B234">
-        <v>-1</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C234">
-        <v>0.31622314453125</v>
+        <v>1.199951171875</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B235">
-        <v>-1</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C235">
-        <v>0.39520263671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B236">
-        <v>-0.1312255859375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -2984,10 +2984,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B237">
-        <v>-0.103759765625</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B238">
-        <v>-0.2320556640625</v>
+        <v>-1</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3006,21 +3006,21 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B239">
-        <v>-0.1312255859375</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1.321533203125</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B240">
-        <v>-0.1312255859375</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B241">
-        <v>-0.2320556640625</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B242">
-        <v>-0.046417236328125</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B243">
-        <v>-0.1312255859375</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B244">
-        <v>-0.1312255859375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B245">
-        <v>-0.046417236328125</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -3083,10 +3083,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B246">
-        <v>-0.103759765625</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B247">
-        <v>-0.1312255859375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -3105,10 +3105,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B248">
-        <v>-0.046417236328125</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B249">
-        <v>-0.103759765625</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -3127,21 +3127,21 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B250">
-        <v>-0.1392822265625</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C250">
-        <v>0.2705078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B251">
-        <v>-0.135498046875</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B252">
-        <v>-0.06060791015625</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B253">
-        <v>-0.06060791015625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -3171,32 +3171,32 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B254">
-        <v>-0.06060791015625</v>
+        <v>-1</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B255">
-        <v>-0.06060791015625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1.897216796875</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B256">
-        <v>-0.06060791015625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B257">
-        <v>-0.06060791015625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B258">
-        <v>-0.06060791015625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -3226,32 +3226,32 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B259">
-        <v>-0.06060791015625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C259">
-        <v>0.25225830078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B260">
-        <v>-0.1580810546875</v>
+        <v>-1</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1.63232421875</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B261">
-        <v>-0.1580810546875</v>
+        <v>-1</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -3259,43 +3259,43 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B262">
         <v>-1</v>
       </c>
       <c r="C262">
-        <v>0.4080810546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B263">
-        <v>-1</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C263">
-        <v>0.31060791015625</v>
+        <v>1.4267578125</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B264">
-        <v>-1</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C264">
-        <v>0.33837890625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B265">
-        <v>-0.06060791015625</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B266">
-        <v>-0.06060791015625</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -3314,32 +3314,32 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B267">
-        <v>-1</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C267">
-        <v>0.27099609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B268">
-        <v>-1</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B269">
-        <v>-0.1767578125</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -3347,10 +3347,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B270">
-        <v>-0.1767578125</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -3358,10 +3358,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B271">
-        <v>-0.1767578125</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -3369,98 +3369,98 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B272">
-        <v>-0.1864013671875</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C272">
-        <v>0.2984619140625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B273">
-        <v>-1</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C273">
-        <v>0.33795166015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B274">
-        <v>-0.08837890625</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>1.14404296875</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B275">
-        <v>-0.1976318359375</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C275">
-        <v>0.2860107421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B276">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>1.52685546875</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B277">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C277">
-        <v>0.3817138671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B278">
         <v>-1</v>
       </c>
       <c r="C278">
-        <v>0.292724609375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B279">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B280">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -3468,32 +3468,32 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B281">
         <v>-1</v>
       </c>
       <c r="C281">
-        <v>0.2698974609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B282">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>1.25146484375</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B283">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B284">
-        <v>-0.1212158203125</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -3512,43 +3512,43 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B285">
-        <v>-0.191650390625</v>
+        <v>-0.7666015625</v>
       </c>
       <c r="C285">
-        <v>0.3128662109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B286">
-        <v>-1</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C286">
-        <v>0.28271484375</v>
+        <v>1.130859375</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B287">
-        <v>-1</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C287">
-        <v>0.26763916015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B288">
-        <v>-0.049041748046875</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B289">
-        <v>-0.049041748046875</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B290">
-        <v>-0.049041748046875</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -3578,10 +3578,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B291">
-        <v>-0.049041748046875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -3589,21 +3589,21 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B292">
-        <v>-0.2022705078125</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C292">
-        <v>0.2716064453125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B293">
-        <v>-0.25</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B294">
-        <v>-0.0980224609375</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B295">
-        <v>-0.0980224609375</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -3633,21 +3633,21 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B296">
-        <v>-0.25</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C296">
-        <v>0.35791015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B297">
-        <v>-0.1864013671875</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -3655,21 +3655,21 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B298">
-        <v>-0.2357177734375</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C298">
-        <v>0.36785888671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B299">
-        <v>-0.055908203125</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B300">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -3688,32 +3688,32 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B301">
-        <v>-0.2015380859375</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>1.19775390625</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B302">
-        <v>-1</v>
+        <v>-0.72119140625</v>
       </c>
       <c r="C302">
-        <v>0.2574462890625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B303">
-        <v>-0.1767578125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B304">
-        <v>-0.1767578125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -3732,32 +3732,32 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B305">
-        <v>-0.1767578125</v>
+        <v>-0.5654296875</v>
       </c>
       <c r="C305">
-        <v>0.4267578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B306">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>1.154296875</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B307">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -3765,32 +3765,32 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B308">
-        <v>-1</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C308">
-        <v>0.28857421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B309">
-        <v>-1</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C309">
-        <v>0.3466796875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B310">
-        <v>-0.2371826171875</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B311">
-        <v>-0.2371826171875</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -3809,10 +3809,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B312">
-        <v>-0.07904052734375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B313">
-        <v>-0.07904052734375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -3831,21 +3831,21 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B314">
-        <v>-1</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C314">
-        <v>0.4139404296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B315">
-        <v>-0.07904052734375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B316">
-        <v>-0.07904052734375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B317">
-        <v>-0.07904052734375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -3875,21 +3875,21 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B318">
-        <v>-0.055908203125</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>1.3709716796875</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B319">
-        <v>-0.055908203125</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B320">
-        <v>-0.055908203125</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -3908,21 +3908,21 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B321">
-        <v>-0.167724609375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C321">
-        <v>0.25579833984375</v>
+        <v>1.01220703125</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B322">
-        <v>-0.11181640625</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -3930,32 +3930,32 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B323">
-        <v>-0.11181640625</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>1.02685546875</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B324">
-        <v>-1</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C324">
-        <v>0.36181640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B325">
-        <v>-0.0693359375</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -3963,21 +3963,21 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B326">
-        <v>-0.21923828125</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C326">
-        <v>0.28857421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B327">
-        <v>-0.196044921875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B328">
-        <v>-0.138671875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B329">
-        <v>-0.138671875</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B330">
-        <v>-0.196044921875</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -4018,65 +4018,65 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B331">
-        <v>-1</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C331">
-        <v>0.265380859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B332">
-        <v>-1</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C332">
-        <v>0.467041015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B333">
-        <v>-1</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C333">
-        <v>0.27734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B334">
-        <v>-1</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C334">
-        <v>0.3466796875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B335">
-        <v>-1</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B336">
-        <v>-0.1961669921875</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B337">
-        <v>-0.2193603515625</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -4095,32 +4095,32 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B338">
-        <v>-0.25</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C338">
-        <v>0.34808349609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B339">
-        <v>-1</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C339">
-        <v>0.27099609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B340">
-        <v>-0.1767578125</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B341">
-        <v>-0.1767578125</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B342">
-        <v>-0.1767578125</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -4150,21 +4150,21 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B343">
-        <v>-0.1767578125</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C343">
-        <v>0.353515625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B344">
-        <v>-0.25</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B345">
-        <v>-0.25</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B346">
-        <v>-0.25</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B347">
-        <v>-0.1817626953125</v>
+        <v>-1.099609375</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -4205,21 +4205,21 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B348">
-        <v>-0.085693359375</v>
+        <v>-1</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>1.90087890625</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B349">
-        <v>-0.085693359375</v>
+        <v>-0.7666015625</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -4227,10 +4227,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B350">
-        <v>-0.1817626953125</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -4238,10 +4238,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B351">
-        <v>-0.25</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -4249,10 +4249,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B352">
-        <v>-0.085693359375</v>
+        <v>-0.7666015625</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -4260,10 +4260,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B353">
-        <v>-0.085693359375</v>
+        <v>-0.7666015625</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -4271,32 +4271,32 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B354">
-        <v>-1</v>
+        <v>-0.8740234375</v>
       </c>
       <c r="C354">
-        <v>0.257080078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B355">
-        <v>-0.0693359375</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C355">
-        <v>0</v>
+        <v>1.39208984375</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B356">
-        <v>-0.0693359375</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B357">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B358">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -4326,54 +4326,54 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B359">
         <v>-1</v>
       </c>
       <c r="C359">
-        <v>0.3480224609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B360">
-        <v>-1</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C360">
-        <v>0.265380859375</v>
+        <v>1.0615234375</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B361">
-        <v>-1</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C361">
-        <v>0.25579833984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B362">
-        <v>-1</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C362">
-        <v>0.35357666015625</v>
+        <v>1.414306640625</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B363">
-        <v>-0.1580810546875</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -4381,32 +4381,32 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B364">
-        <v>-0.11181640625</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>1.5810546875</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B365">
-        <v>-0.11181640625</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C365">
-        <v>0.316162109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B366">
-        <v>-0.1580810546875</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -4414,10 +4414,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B367">
-        <v>-0.1767578125</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B368">
-        <v>-0.11181640625</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -4436,10 +4436,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B369">
-        <v>-0.11181640625</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -4447,21 +4447,21 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B370">
-        <v>-0.11181640625</v>
+        <v>-0.7666015625</v>
       </c>
       <c r="C370">
-        <v>0</v>
+        <v>1.25146484375</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B371">
-        <v>-0.11181640625</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -4469,21 +4469,21 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B372">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C372">
-        <v>0.3348388671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B373">
-        <v>-0.07904052734375</v>
+        <v>-1</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -4491,10 +4491,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B374">
-        <v>-0.07904052734375</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -4502,21 +4502,21 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B375">
-        <v>-0.1580810546875</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C375">
-        <v>0</v>
+        <v>1.19384765625</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B376">
-        <v>-0.1767578125</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B377">
-        <v>-0.25</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B378">
-        <v>-0.07904052734375</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B379">
-        <v>-0.1580810546875</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B380">
-        <v>-0.1580810546875</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -4568,21 +4568,21 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B381">
-        <v>-1</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C381">
-        <v>0.44085693359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B382">
-        <v>-0.11785888671875</v>
+        <v>-1</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -4590,32 +4590,32 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B383">
-        <v>-0.11785888671875</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C383">
-        <v>0</v>
+        <v>1.79052734375</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B384">
-        <v>-1</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C384">
-        <v>0.4364013671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B385">
-        <v>-0.11181640625</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -4623,10 +4623,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B386">
-        <v>-0.11181640625</v>
+        <v>-0.9013671875</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -4634,10 +4634,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B387">
-        <v>-0.1580810546875</v>
+        <v>-0.9013671875</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -4645,21 +4645,21 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B388">
-        <v>-0.11181640625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C388">
-        <v>0</v>
+        <v>1.33935546875</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B389">
-        <v>-0.11181640625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -4667,10 +4667,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B390">
-        <v>-0.11181640625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B391">
-        <v>-0.11181640625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -4689,10 +4689,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B392">
-        <v>-0.1580810546875</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -4700,10 +4700,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B393">
-        <v>-0.1580810546875</v>
+        <v>-1</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -4711,21 +4711,21 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B394">
-        <v>-0.11181640625</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C394">
-        <v>0</v>
+        <v>1.52734375</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B395">
-        <v>-0.11181640625</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B396">
-        <v>-0.11181640625</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B397">
-        <v>-0.11181640625</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B398">
-        <v>-0.1580810546875</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -4766,10 +4766,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B399">
-        <v>-0.11181640625</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B400">
-        <v>-0.11181640625</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B401">
-        <v>-0.1580810546875</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -4799,65 +4799,65 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B402">
-        <v>-1</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C402">
-        <v>0.4080810546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B403">
         <v>-1</v>
       </c>
       <c r="C403">
-        <v>0.3193359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B404">
-        <v>-0.21923828125</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C404">
-        <v>0</v>
+        <v>1.5546875</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B405">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C405">
-        <v>0.404052734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B406">
-        <v>-0.0625</v>
+        <v>-0.75</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>1.30908203125</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B407">
-        <v>-0.1976318359375</v>
+        <v>-0.75</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B408">
-        <v>-0.1976318359375</v>
+        <v>-0.75</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -4876,10 +4876,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B409">
-        <v>-0.0625</v>
+        <v>-0.55908203125</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -4887,65 +4887,65 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B410">
-        <v>-0.225341796875</v>
+        <v>-0.72119140625</v>
       </c>
       <c r="C410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B411">
-        <v>-0.1397705078125</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="C411">
-        <v>0.3272705078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="B412">
-        <v>-1</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="C412">
-        <v>0.32635498046875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B413">
-        <v>-1</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="C413">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B414">
-        <v>-1</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="C414">
-        <v>0.2674560546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B415">
-        <v>-0.1580810546875</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -4953,21 +4953,21 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B416">
-        <v>-0.11181640625</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="C416">
-        <v>0.2698974609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B417">
-        <v>-0.1580810546875</v>
+        <v>-0.72119140625</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -4975,32 +4975,32 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B418">
-        <v>-0.2236328125</v>
+        <v>-1</v>
       </c>
       <c r="C418">
-        <v>0.3817138671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B419">
-        <v>-1</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C419">
-        <v>0.36761474609375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B420">
-        <v>-0.181884765625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -5008,10 +5008,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B421">
-        <v>-0.154541015625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B422">
-        <v>-0.154541015625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B423">
-        <v>-0.181884765625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -5041,54 +5041,54 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B424">
-        <v>-1</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C424">
-        <v>0.26763916015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B425">
-        <v>-0.2080078125</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>1.38671875</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B426">
-        <v>-0.138671875</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C426">
-        <v>0.3466796875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B427">
-        <v>-1</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C427">
-        <v>0.257080078125</v>
+        <v>1.0283203125</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B428">
-        <v>-0.1864013671875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -5096,43 +5096,43 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B429">
-        <v>-0.1864013671875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C429">
-        <v>0.28448486328125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B430">
         <v>-1</v>
       </c>
       <c r="C430">
-        <v>0.4166259765625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B431">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>1.0546875</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B432">
-        <v>-0.11785888671875</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B433">
-        <v>-0.11785888671875</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -5151,10 +5151,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B434">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -5162,10 +5162,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B435">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -5173,10 +5173,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B436">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B437">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B438">
-        <v>-0.11785888671875</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -5206,10 +5206,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B439">
-        <v>-0.11785888671875</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -5217,32 +5217,32 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B440">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C440">
-        <v>0.263671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="B441">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="C441">
-        <v>0.305908203125</v>
+        <v>1.263427734375</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B442">
-        <v>-0.0693359375</v>
+        <v>-0.5</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B443">
-        <v>-0.0693359375</v>
+        <v>-0.5</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -5261,10 +5261,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B444">
-        <v>-0.0693359375</v>
+        <v>-0.5</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B445">
-        <v>-0.0693359375</v>
+        <v>-0.5</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -5283,10 +5283,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B446">
-        <v>-0.0693359375</v>
+        <v>-0.5</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B447">
-        <v>-0.2080078125</v>
+        <v>-0.5</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -5305,10 +5305,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B448">
-        <v>-0.2080078125</v>
+        <v>-0.5</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B449">
-        <v>-0.2080078125</v>
+        <v>-0.5</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -5327,21 +5327,21 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B450">
-        <v>-0.155029296875</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C450">
-        <v>0.432373046875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B451">
-        <v>-0.225341796875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -5349,21 +5349,21 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B452">
-        <v>-0.08837890625</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B453">
-        <v>-0.0625</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -5371,21 +5371,21 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B454">
-        <v>-0.0625</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C454">
-        <v>0</v>
+        <v>1.137939453125</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B455">
-        <v>-0.08837890625</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B456">
-        <v>-0.0625</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -5404,10 +5404,10 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B457">
-        <v>-0.0625</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -5415,10 +5415,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B458">
-        <v>-0.225341796875</v>
+        <v>-0.66650390625</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B459">
-        <v>-0.225341796875</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -5437,54 +5437,54 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B460">
-        <v>-0.0625</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B461">
-        <v>-0.08837890625</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C461">
-        <v>0.3651123046875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B462">
-        <v>-1</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C462">
-        <v>0.52020263671875</v>
+        <v>1.4912109375</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B463">
-        <v>-1</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B464">
-        <v>-0.09808349609375</v>
+        <v>-0.94287109375</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -5492,32 +5492,32 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B465">
-        <v>-0.2080078125</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C465">
-        <v>0.30609130859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B466">
-        <v>-1</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C466">
-        <v>0.56903076171875</v>
+        <v>1.078857421875</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B467">
-        <v>-0.09808349609375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B468">
-        <v>-0.0693359375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -5536,10 +5536,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B469">
-        <v>-0.155029296875</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B470">
-        <v>-0.155029296875</v>
+        <v>-1</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -5558,10 +5558,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B471">
-        <v>-0.0693359375</v>
+        <v>-1</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B472">
-        <v>-0.09808349609375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -5580,10 +5580,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B473">
-        <v>-0.09808349609375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -5591,10 +5591,10 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B474">
-        <v>-0.0693359375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -5602,21 +5602,21 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B475">
-        <v>-0.1961669921875</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C475">
-        <v>0.3511962890625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B476">
-        <v>-0.1470947265625</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B477">
-        <v>-0.1470947265625</v>
+        <v>-0.94287109375</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -5635,43 +5635,43 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B478">
-        <v>-1</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C478">
-        <v>0.323974609375</v>
+        <v>1.39208984375</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B479">
-        <v>-1</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C479">
-        <v>0.30267333984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="B480">
-        <v>-1</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C480">
-        <v>0.446044921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="B481">
-        <v>-0.07904052734375</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -5679,54 +5679,54 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B482">
-        <v>-0.07904052734375</v>
+        <v>-1</v>
       </c>
       <c r="C482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="B483">
-        <v>-0.1767578125</v>
+        <v>-0.25</v>
       </c>
       <c r="C483">
-        <v>0</v>
+        <v>1.05908203125</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="B484">
-        <v>-0.11181640625</v>
+        <v>-0.25</v>
       </c>
       <c r="C484">
-        <v>0.28857421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="B485">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="C485">
-        <v>0.30426025390625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B486">
-        <v>-0.155029296875</v>
+        <v>-0.25</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -5734,32 +5734,32 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B487">
-        <v>-0.2022705078125</v>
+        <v>-0.25</v>
       </c>
       <c r="C487">
-        <v>0.2716064453125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B488">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="C488">
-        <v>0.308929443359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B489">
-        <v>-0.155029296875</v>
+        <v>-0.5</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B490">
-        <v>-0.155029296875</v>
+        <v>-0.55908203125</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -5778,21 +5778,21 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B491">
-        <v>-0.155029296875</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C491">
-        <v>0</v>
+        <v>1.122314453125</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B492">
-        <v>-0.0693359375</v>
+        <v>-0.5</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B493">
-        <v>-0.0693359375</v>
+        <v>-0.5</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -5811,54 +5811,54 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B494">
-        <v>-0.0980224609375</v>
+        <v>-0.6708984375</v>
       </c>
       <c r="C494">
-        <v>0.2530517578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B495">
-        <v>-0.196044921875</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B496">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C496">
-        <v>0.265380859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B497">
-        <v>-0.1875</v>
+        <v>-0.75</v>
       </c>
       <c r="C497">
-        <v>0</v>
+        <v>1.30908203125</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B498">
-        <v>-0.1397705078125</v>
+        <v>-0.25</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B499">
-        <v>-0.1397705078125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -5877,21 +5877,21 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B500">
-        <v>-0.1397705078125</v>
+        <v>-1</v>
       </c>
       <c r="C500">
-        <v>0</v>
+        <v>1.26904296875</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B501">
-        <v>-0.1397705078125</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B502">
-        <v>-0.1397705078125</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -5910,43 +5910,43 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="B503">
-        <v>-0.1397705078125</v>
+        <v>-0.52490234375</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="B504">
-        <v>-0.1397705078125</v>
+        <v>-0.55712890625</v>
       </c>
       <c r="C504">
-        <v>0.3272705078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B505">
-        <v>-0.2022705078125</v>
+        <v>-0.80908203125</v>
       </c>
       <c r="C505">
-        <v>0</v>
+        <v>1.058837890625</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B506">
-        <v>-0.09808349609375</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B507">
-        <v>-0.10968017578125</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -5965,10 +5965,10 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B508">
-        <v>-0.2022705078125</v>
+        <v>-0.80908203125</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -5976,10 +5976,10 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B509">
-        <v>-0.2022705078125</v>
+        <v>-0.80908203125</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -5987,10 +5987,10 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B510">
-        <v>-0.10968017578125</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B511">
-        <v>-0.09808349609375</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B512">
-        <v>-0.2022705078125</v>
+        <v>-0.80908203125</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -6020,10 +6020,10 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B513">
-        <v>-0.2022705078125</v>
+        <v>-0.80908203125</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B514">
-        <v>-0.09808349609375</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -6042,54 +6042,54 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B515">
-        <v>-0.155029296875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C515">
-        <v>0.26470947265625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="B516">
         <v>-1</v>
       </c>
       <c r="C516">
-        <v>0.55474853515625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="B517">
-        <v>-1</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C517">
-        <v>0.5</v>
+        <v>2.1591796875</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B518">
-        <v>-1</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C518">
-        <v>0.3193359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B519">
-        <v>-0.21923828125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B520">
-        <v>-0.155029296875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B521">
-        <v>-0.155029296875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -6119,21 +6119,21 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B522">
-        <v>-0.21923828125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C522">
-        <v>0.405029296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B523">
-        <v>-0.1976318359375</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -6141,32 +6141,32 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B524">
-        <v>-0.08837890625</v>
+        <v>-1</v>
       </c>
       <c r="C524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B525">
-        <v>-0.125</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B526">
-        <v>-0.125</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B527">
-        <v>-0.08837890625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -6185,21 +6185,21 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B528">
-        <v>-0.25</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C528">
-        <v>0.3226318359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B529">
-        <v>-0.125</v>
+        <v>-1</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -6207,21 +6207,21 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B530">
-        <v>-0.07904052734375</v>
+        <v>-0.68603515625</v>
       </c>
       <c r="C530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B531">
-        <v>-0.055908203125</v>
+        <v>-0.68603515625</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -6229,32 +6229,32 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B532">
-        <v>-1</v>
+        <v>-0.383544921875</v>
       </c>
       <c r="C532">
-        <v>0.2698974609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B533">
-        <v>-1</v>
+        <v>-0.383544921875</v>
       </c>
       <c r="C533">
-        <v>0.26763916015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="B534">
-        <v>-0.25</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -6262,21 +6262,21 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B535">
-        <v>-0.25</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C535">
-        <v>0</v>
+        <v>1.6201171875</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B536">
-        <v>-0.25</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B537">
-        <v>-0.25</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -6295,21 +6295,21 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B538">
-        <v>-1</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C538">
-        <v>0.34283447265625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B539">
-        <v>-0.19140625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B540">
-        <v>-0.19140625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -6328,32 +6328,32 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B541">
-        <v>-1</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C541">
-        <v>0.25701904296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B542">
-        <v>-0.10968017578125</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C542">
-        <v>0</v>
+        <v>1.058837890625</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B543">
-        <v>-0.1470947265625</v>
+        <v>-0.58837890625</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -6361,32 +6361,32 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B544">
-        <v>-0.049041748046875</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C544">
-        <v>0.26470947265625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B545">
-        <v>-0.055908203125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C545">
-        <v>0</v>
+        <v>1.023193359375</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B546">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B547">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -6405,10 +6405,10 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B548">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B549">
-        <v>-0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B550">
-        <v>-0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B551">
-        <v>-0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B552">
-        <v>-0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B553">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B554">
-        <v>-0.055908203125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -6482,32 +6482,32 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B555">
-        <v>-1</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C555">
-        <v>0.25579833984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B556">
-        <v>-1</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C556">
-        <v>0.363037109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B557">
-        <v>-0.1580810546875</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B558">
-        <v>-0.1802978515625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -6526,10 +6526,10 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B559">
-        <v>-0.1802978515625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -6537,10 +6537,10 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B560">
-        <v>-0.1802978515625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B561">
-        <v>-0.1802978515625</v>
+        <v>-0.5</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B562">
-        <v>-0.1580810546875</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -6570,21 +6570,21 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B563">
-        <v>-0.1580810546875</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C563">
-        <v>0</v>
+        <v>1.240234375</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B564">
-        <v>-0.141357421875</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B565">
-        <v>-0.141357421875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -6603,10 +6603,10 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B566">
-        <v>-0.04998779296875</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B567">
-        <v>-0.04998779296875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B568">
-        <v>-0.141357421875</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B569">
-        <v>-0.1580810546875</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -6647,21 +6647,21 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B570">
-        <v>-1</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C570">
-        <v>0.2698974609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B571">
-        <v>-0.25</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B572">
-        <v>-0.1580810546875</v>
+        <v>-0.39208984375</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -6680,21 +6680,21 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B573">
-        <v>-0.11181640625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C573">
-        <v>0.36181640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="B574">
-        <v>-0.25</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -6702,21 +6702,21 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B575">
-        <v>-0.146728515625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C575">
-        <v>0</v>
+        <v>1.16845703125</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B576">
-        <v>-0.06561279296875</v>
+        <v>-0.72119140625</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -6724,43 +6724,43 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="B577">
-        <v>-0.103759765625</v>
+        <v>-1</v>
       </c>
       <c r="C577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B578">
         <v>-1</v>
       </c>
       <c r="C578">
-        <v>0.31610107421875</v>
+        <v>1.1806640625</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="B579">
-        <v>-1</v>
+        <v>-0.765625</v>
       </c>
       <c r="C579">
-        <v>0.44085693359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="B580">
-        <v>-0.11181640625</v>
+        <v>-0.765625</v>
       </c>
       <c r="C580">
         <v>0</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="B581">
-        <v>-0.11181640625</v>
+        <v>-0.74267578125</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="B582">
-        <v>-0.11181640625</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C582">
         <v>0</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="B583">
-        <v>-0.07904052734375</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="B584">
-        <v>-0.07904052734375</v>
+        <v>-0.765625</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -6812,21 +6812,21 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B585">
-        <v>-0.07904052734375</v>
+        <v>-0.4150390625</v>
       </c>
       <c r="C585">
-        <v>0</v>
+        <v>1.08447265625</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B586">
-        <v>-0.07904052734375</v>
+        <v>-0.4150390625</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B587">
-        <v>-0.11181640625</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B588">
-        <v>-0.11181640625</v>
+        <v>-1</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -6856,21 +6856,21 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="B589">
-        <v>-1</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C589">
-        <v>0.3817138671875</v>
+        <v>1.6640625</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="B590">
-        <v>-0.1212158203125</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -6878,32 +6878,32 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="B591">
-        <v>-0.25</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C591">
-        <v>0.30419921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B592">
-        <v>-1</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C592">
-        <v>0.55908203125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B593">
-        <v>-0.155029296875</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -6911,32 +6911,32 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="B594">
-        <v>-0.0693359375</v>
+        <v>-1</v>
       </c>
       <c r="C594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B595">
-        <v>-0.138671875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C595">
-        <v>0</v>
+        <v>1.447265625</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="A596">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B596">
-        <v>-0.138671875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C596">
         <v>0</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B597">
-        <v>-0.138671875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B598">
-        <v>-0.155029296875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C598">
         <v>0</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B599">
-        <v>-0.0980224609375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B600">
-        <v>-0.0693359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -6988,13 +6988,13 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B601">
-        <v>-0.25</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C601">
-        <v>0.388671875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
